--- a/pythonProject_ecxle/delivery_manifest.xlsx
+++ b/pythonProject_ecxle/delivery_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\pythonProject4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\pythonProject_ecxle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCEA56C-C771-45F5-BB20-5C58C1ABF592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C1D245-C6EC-4D86-9C12-668856308423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delivery_manifest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="106">
   <si>
     <t>Part Number</t>
   </si>
@@ -94,244 +94,263 @@
     <t>ECU</t>
   </si>
   <si>
+    <t xml:space="preserve"> VIP App module</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEV_REL</t>
+  </si>
+  <si>
+    <t>BOOTLOADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMPTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOEWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQBM-260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86543817.AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0207P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_HOSTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC HostOS module (HostOS System and Hypervisor)</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GM_BOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580952.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8273C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_HOSTOS_RECOVERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC HostOS Recovery module (HostOS Recovery and Hypervisor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580955.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8379E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_ANDROID_BOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC Android boot partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580958.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8273A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_VENDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC Android vendor partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580961.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC Android system partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580964.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0207S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_PRODUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC Android product partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580967.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIRMWARE_PARTITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC firmware partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580970.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6582E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_CERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC Certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580973.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8273D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_HOSTOS_RESOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC HostOS HMI data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580975.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6571M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIP_BOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIP Bootloader module</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86538293.AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SoC Boot module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26488635.GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0207B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manifest</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580945.mnf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8693G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86580948.smd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8693F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delta_Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6582C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manifest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOC_BOOT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>86543817.AC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> VIP_APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIP App module</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DEV_REL</t>
-  </si>
-  <si>
-    <t>BOOTLOADER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EMPTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOEWO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SQBM-260</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86543817.AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AC</t>
-  </si>
-  <si>
-    <t>12F</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0207P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_HOSTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC HostOS module (HostOS System and Hypervisor)</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GM_BOSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580952.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8273C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_HOSTOS_RECOVERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC HostOS Recovery module (HostOS Recovery and Hypervisor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580955.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8379E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_ANDROID_BOOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC Android boot partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580958.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8273A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_VENDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC Android vendor partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580961.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_SYSTEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC Android system partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580964.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0207S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_PRODUCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC Android product partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580967.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FIRMWARE_PARTITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC firmware partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580970.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6582E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_CERT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580973.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8273D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_HOSTOS_RESOURCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC HostOS HMI data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580975.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6571M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIP_BOOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIP Bootloader module</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86538293.AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOC_BOOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SoC Boot module</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26488635.GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0207B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manifest</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580945.mnf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8693G</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86580948.smd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8693F</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delta_Package</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6582C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>86580952.GB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>86580955.GB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1276,12 +1295,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1358,50 +1384,50 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>86543817</v>
+      <c r="A2" t="s">
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -1410,69 +1436,69 @@
         <v>86580906</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T2">
         <v>86543817</v>
       </c>
       <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>86580952</v>
+      <c r="A3" t="s">
+        <v>104</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
       <c r="E3">
         <v>2024</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
@@ -1481,69 +1507,69 @@
         <v>26494352</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T3">
         <v>26488624</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
         <v>38</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>86580955</v>
+      <c r="A4" t="s">
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>2024</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>51</v>
       </c>
       <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="b">
         <v>1</v>
@@ -1552,22 +1578,22 @@
         <v>26494353</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T4">
         <v>26488625</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
         <v>38</v>
-      </c>
-      <c r="W4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1575,46 +1601,46 @@
         <v>86580958</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>52</v>
       </c>
       <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="b">
         <v>1</v>
@@ -1623,22 +1649,22 @@
         <v>26494354</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T5">
         <v>26488626</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
         <v>38</v>
-      </c>
-      <c r="W5" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1646,46 +1672,46 @@
         <v>86580961</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>53</v>
       </c>
       <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="b">
         <v>1</v>
@@ -1694,22 +1720,22 @@
         <v>26494355</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T6">
         <v>26488627</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" t="s">
         <v>38</v>
-      </c>
-      <c r="W6" t="s">
-        <v>61</v>
-      </c>
-      <c r="X6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1717,46 +1743,46 @@
         <v>86580964</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2024</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>54</v>
       </c>
       <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
@@ -1765,22 +1791,22 @@
         <v>26494356</v>
       </c>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T7">
         <v>26488628</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
         <v>38</v>
-      </c>
-      <c r="W7" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1788,46 +1814,46 @@
         <v>86580967</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>2024</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>55</v>
       </c>
       <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
         <v>30</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
       <c r="P8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="b">
         <v>1</v>
@@ -1836,22 +1862,22 @@
         <v>26494357</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T8">
         <v>26488629</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X8" t="s">
         <v>38</v>
-      </c>
-      <c r="W8" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1859,46 +1885,46 @@
         <v>86580970</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>56</v>
       </c>
       <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="N9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1907,22 +1933,22 @@
         <v>26494358</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T9">
         <v>26488630</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
         <v>38</v>
-      </c>
-      <c r="W9" t="s">
-        <v>73</v>
-      </c>
-      <c r="X9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1930,46 +1956,46 @@
         <v>86580973</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>2024</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>61</v>
       </c>
       <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>34</v>
-      </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="b">
         <v>1</v>
@@ -1978,22 +2004,22 @@
         <v>26494359</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T10">
         <v>26488634</v>
       </c>
       <c r="U10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
         <v>38</v>
-      </c>
-      <c r="W10" t="s">
-        <v>77</v>
-      </c>
-      <c r="X10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2001,46 +2027,46 @@
         <v>86580975</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>2024</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>63</v>
       </c>
       <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
-      </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
@@ -2049,22 +2075,22 @@
         <v>26507838</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T11">
         <v>86543889</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
         <v>38</v>
-      </c>
-      <c r="W11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2072,46 +2098,46 @@
         <v>86538293</v>
       </c>
       <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
       </c>
       <c r="E12">
         <v>2024</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>71</v>
       </c>
       <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>31</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>32</v>
       </c>
-      <c r="N12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
@@ -2120,22 +2146,22 @@
         <v>85006327</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T12">
         <v>86538293</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" t="s">
         <v>38</v>
-      </c>
-      <c r="W12" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -2143,46 +2169,46 @@
         <v>26488635</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>2024</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>72</v>
       </c>
       <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
         <v>30</v>
       </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
         <v>32</v>
       </c>
-      <c r="N13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" t="s">
-        <v>34</v>
-      </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
@@ -2191,22 +2217,22 @@
         <v>26494360</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T13">
         <v>26488635</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>88</v>
+      </c>
+      <c r="X13" t="s">
         <v>38</v>
-      </c>
-      <c r="W13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2214,49 +2240,49 @@
         <v>86580945</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>2024</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14">
         <v>92</v>
       </c>
       <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" t="s">
-        <v>34</v>
-      </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
@@ -2265,22 +2291,22 @@
         <v>26494351</v>
       </c>
       <c r="S14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T14">
         <v>86580945</v>
       </c>
       <c r="U14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" t="s">
         <v>38</v>
-      </c>
-      <c r="W14" t="s">
-        <v>96</v>
-      </c>
-      <c r="X14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2288,49 +2314,49 @@
         <v>86580948</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>2024</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15">
         <v>93</v>
       </c>
       <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
         <v>30</v>
       </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="N15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q15" t="b">
         <v>1</v>
@@ -2339,22 +2365,22 @@
         <v>26494350</v>
       </c>
       <c r="S15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T15">
         <v>86580948</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s">
+        <v>96</v>
+      </c>
+      <c r="X15" t="s">
         <v>38</v>
-      </c>
-      <c r="W15" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2362,49 +2388,49 @@
         <v>86580942</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>2024</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16">
         <v>99</v>
       </c>
       <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="N16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" t="s">
-        <v>34</v>
-      </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q16" t="b">
         <v>1</v>
@@ -2413,19 +2439,19 @@
         <v>26494349</v>
       </c>
       <c r="S16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" t="s">
         <v>38</v>
-      </c>
-      <c r="W16" t="s">
-        <v>101</v>
-      </c>
-      <c r="X16" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
